--- a/Study 3/Shocks/GCAM/NDC_LTT - 2045.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2045.xlsx
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.09624509654937863</v>
+        <v>0.0962450965493786</v>
       </c>
     </row>
     <row r="6">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.003509222174001222</v>
+        <v>0.003509222174001221</v>
       </c>
     </row>
     <row r="10">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2456939419922166</v>
+        <v>0.2456939419922165</v>
       </c>
     </row>
     <row r="14">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002905244647176344</v>
+        <v>0.002905244647176343</v>
       </c>
     </row>
     <row r="15">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.03091537186299768</v>
+        <v>0.03091537186299767</v>
       </c>
     </row>
     <row r="18">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1623082124104944</v>
+        <v>0.1623082124104943</v>
       </c>
     </row>
     <row r="19">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.04278841908692646</v>
+        <v>0.04278841908692645</v>
       </c>
     </row>
     <row r="22">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.05810978500507064</v>
+        <v>0.05810978500507062</v>
       </c>
     </row>
     <row r="26">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0008692036168298637</v>
+        <v>0.0008692036168298636</v>
       </c>
     </row>
     <row r="27">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01991597624607201</v>
+        <v>0.019915976246072</v>
       </c>
     </row>
     <row r="30">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.005001032625754352</v>
+        <v>0.005001032625754351</v>
       </c>
     </row>
     <row r="34">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1491172402630149</v>
+        <v>0.1491172402630148</v>
       </c>
     </row>
     <row r="35">
